--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H2">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I2">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J2">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.17826195074636</v>
+        <v>0.2667246666666667</v>
       </c>
       <c r="N2">
-        <v>0.17826195074636</v>
+        <v>0.8001740000000001</v>
       </c>
       <c r="O2">
-        <v>0.05799891043834242</v>
+        <v>0.0541745827576984</v>
       </c>
       <c r="P2">
-        <v>0.05799891043834242</v>
+        <v>0.07300781059322826</v>
       </c>
       <c r="Q2">
-        <v>0.8368995926731738</v>
+        <v>1.300963786982222</v>
       </c>
       <c r="R2">
-        <v>0.8368995926731738</v>
+        <v>11.70867408284</v>
       </c>
       <c r="S2">
-        <v>0.007835086861453953</v>
+        <v>0.006548164146158658</v>
       </c>
       <c r="T2">
-        <v>0.007835086861453953</v>
+        <v>0.009029734721136218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H3">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I3">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J3">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.89527769679352</v>
+        <v>0.010867</v>
       </c>
       <c r="N3">
-        <v>2.89527769679352</v>
+        <v>0.032601</v>
       </c>
       <c r="O3">
-        <v>0.9420010895616576</v>
+        <v>0.002207201899191583</v>
       </c>
       <c r="P3">
-        <v>0.9420010895616576</v>
+        <v>0.002974512584950067</v>
       </c>
       <c r="Q3">
-        <v>13.59267479670896</v>
+        <v>0.05300437207333334</v>
       </c>
       <c r="R3">
-        <v>13.59267479670896</v>
+        <v>0.47703934866</v>
       </c>
       <c r="S3">
-        <v>0.1272551553903085</v>
+        <v>0.0002667878478042506</v>
       </c>
       <c r="T3">
-        <v>0.1272551553903085</v>
+        <v>0.0003678929603358292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96730680095164</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H4">
-        <v>2.96730680095164</v>
+        <v>14.63266</v>
       </c>
       <c r="I4">
-        <v>0.08538306305265352</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J4">
-        <v>0.08538306305265352</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.17826195074636</v>
+        <v>0.644775</v>
       </c>
       <c r="N4">
-        <v>0.17826195074636</v>
+        <v>1.934325</v>
       </c>
       <c r="O4">
-        <v>0.05799891043834242</v>
+        <v>0.1309605783151976</v>
       </c>
       <c r="P4">
-        <v>0.05799891043834242</v>
+        <v>0.1764876554671187</v>
       </c>
       <c r="Q4">
-        <v>0.5289578988005803</v>
+        <v>3.1449244505</v>
       </c>
       <c r="R4">
-        <v>0.5289578988005803</v>
+        <v>28.3043200545</v>
       </c>
       <c r="S4">
-        <v>0.004952124626942195</v>
+        <v>0.01582940411962691</v>
       </c>
       <c r="T4">
-        <v>0.004952124626942195</v>
+        <v>0.02182830436187856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96730680095164</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H5">
-        <v>2.96730680095164</v>
+        <v>14.63266</v>
       </c>
       <c r="I5">
-        <v>0.08538306305265352</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J5">
-        <v>0.08538306305265352</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.89527769679352</v>
+        <v>0.190892</v>
       </c>
       <c r="N5">
-        <v>2.89527769679352</v>
+        <v>0.572676</v>
       </c>
       <c r="O5">
-        <v>0.9420010895616576</v>
+        <v>0.0387721712469384</v>
       </c>
       <c r="P5">
-        <v>0.9420010895616576</v>
+        <v>0.0522509116008363</v>
       </c>
       <c r="Q5">
-        <v>8.591177200339011</v>
+        <v>0.9310859109066667</v>
       </c>
       <c r="R5">
-        <v>8.591177200339011</v>
+        <v>8.379773198160001</v>
       </c>
       <c r="S5">
-        <v>0.08043093842571132</v>
+        <v>0.004686451260057882</v>
       </c>
       <c r="T5">
-        <v>0.08043093842571132</v>
+        <v>0.006462484860994489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.9184295628007</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H6">
-        <v>12.9184295628007</v>
+        <v>14.63266</v>
       </c>
       <c r="I6">
-        <v>0.3717226292704648</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J6">
-        <v>0.3717226292704648</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.17826195074636</v>
+        <v>3.8101695</v>
       </c>
       <c r="N6">
-        <v>0.17826195074636</v>
+        <v>7.620339</v>
       </c>
       <c r="O6">
-        <v>0.05799891043834242</v>
+        <v>0.7738854657809741</v>
       </c>
       <c r="P6">
-        <v>0.05799891043834242</v>
+        <v>0.6952791097538666</v>
       </c>
       <c r="Q6">
-        <v>2.3028644544443</v>
+        <v>18.58430494529</v>
       </c>
       <c r="R6">
-        <v>2.3028644544443</v>
+        <v>111.50582967174</v>
       </c>
       <c r="S6">
-        <v>0.02155950748296285</v>
+        <v>0.09354071231014978</v>
       </c>
       <c r="T6">
-        <v>0.02155950748296285</v>
+        <v>0.08599334601615204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.9184295628007</v>
+        <v>3.649884</v>
       </c>
       <c r="H7">
-        <v>12.9184295628007</v>
+        <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.3717226292704648</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J7">
-        <v>0.3717226292704648</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.89527769679352</v>
+        <v>0.2667246666666667</v>
       </c>
       <c r="N7">
-        <v>2.89527769679352</v>
+        <v>0.8001740000000001</v>
       </c>
       <c r="O7">
-        <v>0.9420010895616576</v>
+        <v>0.0541745827576984</v>
       </c>
       <c r="P7">
-        <v>0.9420010895616576</v>
+        <v>0.07300781059322826</v>
       </c>
       <c r="Q7">
-        <v>37.40244099077493</v>
+        <v>0.973514093272</v>
       </c>
       <c r="R7">
-        <v>37.40244099077493</v>
+        <v>8.761626839448001</v>
       </c>
       <c r="S7">
-        <v>0.350163121787502</v>
+        <v>0.004900005784273975</v>
       </c>
       <c r="T7">
-        <v>0.350163121787502</v>
+        <v>0.006756970560975148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6217358952079</v>
+        <v>3.649884</v>
       </c>
       <c r="H8">
-        <v>11.6217358952079</v>
+        <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.3344107890709461</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J8">
-        <v>0.3344107890709461</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.17826195074636</v>
+        <v>0.010867</v>
       </c>
       <c r="N8">
-        <v>0.17826195074636</v>
+        <v>0.032601</v>
       </c>
       <c r="O8">
-        <v>0.05799891043834242</v>
+        <v>0.002207201899191583</v>
       </c>
       <c r="P8">
-        <v>0.05799891043834242</v>
+        <v>0.002974512584950067</v>
       </c>
       <c r="Q8">
-        <v>2.071713311738755</v>
+        <v>0.039663289428</v>
       </c>
       <c r="R8">
-        <v>2.071713311738755</v>
+        <v>0.356969604852</v>
       </c>
       <c r="S8">
-        <v>0.01939546140494122</v>
+        <v>0.0001996379394645613</v>
       </c>
       <c r="T8">
-        <v>0.01939546140494122</v>
+        <v>0.0002752951198843637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6217358952079</v>
+        <v>3.649884</v>
       </c>
       <c r="H9">
-        <v>11.6217358952079</v>
+        <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.3344107890709461</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J9">
-        <v>0.3344107890709461</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.89527769679352</v>
+        <v>0.644775</v>
       </c>
       <c r="N9">
-        <v>2.89527769679352</v>
+        <v>1.934325</v>
       </c>
       <c r="O9">
-        <v>0.9420010895616576</v>
+        <v>0.1309605783151976</v>
       </c>
       <c r="P9">
-        <v>0.9420010895616576</v>
+        <v>0.1764876554671187</v>
       </c>
       <c r="Q9">
-        <v>33.6481527354201</v>
+        <v>2.3533539561</v>
       </c>
       <c r="R9">
-        <v>33.6481527354201</v>
+        <v>21.1801856049</v>
       </c>
       <c r="S9">
-        <v>0.3150153276660049</v>
+        <v>0.01184517828455531</v>
       </c>
       <c r="T9">
-        <v>0.3150153276660049</v>
+        <v>0.01633416866876236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.5506272588928</v>
+        <v>3.649884</v>
       </c>
       <c r="H10">
-        <v>2.5506272588928</v>
+        <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.07339327635417302</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J10">
-        <v>0.07339327635417302</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.17826195074636</v>
+        <v>0.190892</v>
       </c>
       <c r="N10">
-        <v>0.17826195074636</v>
+        <v>0.572676</v>
       </c>
       <c r="O10">
-        <v>0.05799891043834242</v>
+        <v>0.0387721712469384</v>
       </c>
       <c r="P10">
-        <v>0.05799891043834242</v>
+        <v>0.0522509116008363</v>
       </c>
       <c r="Q10">
-        <v>0.4546797907970715</v>
+        <v>0.6967336565279999</v>
       </c>
       <c r="R10">
-        <v>0.4546797907970715</v>
+        <v>6.270602908752</v>
       </c>
       <c r="S10">
-        <v>0.004256730062042195</v>
+        <v>0.003506881893831695</v>
       </c>
       <c r="T10">
-        <v>0.004256730062042195</v>
+        <v>0.00483589178475807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5506272588928</v>
+        <v>3.649884</v>
       </c>
       <c r="H11">
-        <v>2.5506272588928</v>
+        <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.07339327635417302</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J11">
-        <v>0.07339327635417302</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.89527769679352</v>
+        <v>3.8101695</v>
       </c>
       <c r="N11">
-        <v>2.89527769679352</v>
+        <v>7.620339</v>
       </c>
       <c r="O11">
-        <v>0.9420010895616576</v>
+        <v>0.7738854657809741</v>
       </c>
       <c r="P11">
-        <v>0.9420010895616576</v>
+        <v>0.6952791097538666</v>
       </c>
       <c r="Q11">
-        <v>7.384774215505916</v>
+        <v>13.906676695338</v>
       </c>
       <c r="R11">
-        <v>7.384774215505916</v>
+        <v>83.44006017202801</v>
       </c>
       <c r="S11">
-        <v>0.06913654629213083</v>
+        <v>0.06999672292175559</v>
       </c>
       <c r="T11">
-        <v>0.06913654629213083</v>
+        <v>0.06434901194946449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H12">
+        <v>50.691917</v>
+      </c>
+      <c r="I12">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J12">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P12">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q12">
+        <v>4.506928221506445</v>
+      </c>
+      <c r="R12">
+        <v>40.56235399355801</v>
+      </c>
+      <c r="S12">
+        <v>0.02268480190200897</v>
+      </c>
+      <c r="T12">
+        <v>0.03128170565132077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H13">
+        <v>50.691917</v>
+      </c>
+      <c r="I13">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J13">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.010867</v>
+      </c>
+      <c r="N13">
+        <v>0.032601</v>
+      </c>
+      <c r="O13">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P13">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q13">
+        <v>0.1836230206796667</v>
+      </c>
+      <c r="R13">
+        <v>1.652607186117</v>
+      </c>
+      <c r="S13">
+        <v>0.0009242330128289525</v>
+      </c>
+      <c r="T13">
+        <v>0.00127449140554268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H14">
+        <v>50.691917</v>
+      </c>
+      <c r="I14">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J14">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.644775</v>
+      </c>
+      <c r="N14">
+        <v>1.934325</v>
+      </c>
+      <c r="O14">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P14">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q14">
+        <v>10.894960261225</v>
+      </c>
+      <c r="R14">
+        <v>98.05464235102501</v>
+      </c>
+      <c r="S14">
+        <v>0.05483779707801489</v>
+      </c>
+      <c r="T14">
+        <v>0.07561978430190314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H15">
+        <v>50.691917</v>
+      </c>
+      <c r="I15">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J15">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.190892</v>
+      </c>
+      <c r="N15">
+        <v>0.572676</v>
+      </c>
+      <c r="O15">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P15">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q15">
+        <v>3.225560473321333</v>
+      </c>
+      <c r="R15">
+        <v>29.030044259892</v>
+      </c>
+      <c r="S15">
+        <v>0.01623527084613457</v>
+      </c>
+      <c r="T15">
+        <v>0.02238798319562466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H16">
+        <v>50.691917</v>
+      </c>
+      <c r="I16">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J16">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.8101695</v>
+      </c>
+      <c r="N16">
+        <v>7.620339</v>
+      </c>
+      <c r="O16">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P16">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q16">
+        <v>64.38159868331051</v>
+      </c>
+      <c r="R16">
+        <v>386.2895920998631</v>
+      </c>
+      <c r="S16">
+        <v>0.3240530446649474</v>
+      </c>
+      <c r="T16">
+        <v>0.2979067072427747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.177799</v>
+      </c>
+      <c r="H17">
+        <v>36.533397</v>
+      </c>
+      <c r="I17">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J17">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P17">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q17">
+        <v>3.248119379008667</v>
+      </c>
+      <c r="R17">
+        <v>29.233074411078</v>
+      </c>
+      <c r="S17">
+        <v>0.01634881698698529</v>
+      </c>
+      <c r="T17">
+        <v>0.02254456013957501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.177799</v>
+      </c>
+      <c r="H18">
+        <v>36.533397</v>
+      </c>
+      <c r="I18">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J18">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.010867</v>
+      </c>
+      <c r="N18">
+        <v>0.032601</v>
+      </c>
+      <c r="O18">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P18">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q18">
+        <v>0.132336141733</v>
+      </c>
+      <c r="R18">
+        <v>1.191025275597</v>
+      </c>
+      <c r="S18">
+        <v>0.0006660898536977052</v>
+      </c>
+      <c r="T18">
+        <v>0.0009185192284556671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.177799</v>
+      </c>
+      <c r="H19">
+        <v>36.533397</v>
+      </c>
+      <c r="I19">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J19">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.644775</v>
+      </c>
+      <c r="N19">
+        <v>1.934325</v>
+      </c>
+      <c r="O19">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P19">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q19">
+        <v>7.851940350225</v>
+      </c>
+      <c r="R19">
+        <v>70.66746315202501</v>
+      </c>
+      <c r="S19">
+        <v>0.03952131088781981</v>
+      </c>
+      <c r="T19">
+        <v>0.05449877938046404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.177799</v>
+      </c>
+      <c r="H20">
+        <v>36.533397</v>
+      </c>
+      <c r="I20">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J20">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.190892</v>
+      </c>
+      <c r="N20">
+        <v>0.572676</v>
+      </c>
+      <c r="O20">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P20">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q20">
+        <v>2.324644406708</v>
+      </c>
+      <c r="R20">
+        <v>20.921799660372</v>
+      </c>
+      <c r="S20">
+        <v>0.0117006739994536</v>
+      </c>
+      <c r="T20">
+        <v>0.0161349013120787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.177799</v>
+      </c>
+      <c r="H21">
+        <v>36.533397</v>
+      </c>
+      <c r="I21">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J21">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.8101695</v>
+      </c>
+      <c r="N21">
+        <v>7.620339</v>
+      </c>
+      <c r="O21">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P21">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q21">
+        <v>46.39947832693051</v>
+      </c>
+      <c r="R21">
+        <v>278.396869961583</v>
+      </c>
+      <c r="S21">
+        <v>0.2335433187465224</v>
+      </c>
+      <c r="T21">
+        <v>0.2146997913821855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.750664</v>
+      </c>
+      <c r="H22">
+        <v>5.501328</v>
+      </c>
+      <c r="I22">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J22">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P22">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q22">
+        <v>0.733669938512</v>
+      </c>
+      <c r="R22">
+        <v>4.402019631072</v>
+      </c>
+      <c r="S22">
+        <v>0.003692793938271515</v>
+      </c>
+      <c r="T22">
+        <v>0.003394839520221126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.750664</v>
+      </c>
+      <c r="H23">
+        <v>5.501328</v>
+      </c>
+      <c r="I23">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J23">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.010867</v>
+      </c>
+      <c r="N23">
+        <v>0.032601</v>
+      </c>
+      <c r="O23">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P23">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q23">
+        <v>0.029891465688</v>
+      </c>
+      <c r="R23">
+        <v>0.179348794128</v>
+      </c>
+      <c r="S23">
+        <v>0.0001504532453961134</v>
+      </c>
+      <c r="T23">
+        <v>0.000138313870731527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.750664</v>
+      </c>
+      <c r="H24">
+        <v>5.501328</v>
+      </c>
+      <c r="I24">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J24">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.644775</v>
+      </c>
+      <c r="N24">
+        <v>1.934325</v>
+      </c>
+      <c r="O24">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P24">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q24">
+        <v>1.7735593806</v>
+      </c>
+      <c r="R24">
+        <v>10.6413562836</v>
+      </c>
+      <c r="S24">
+        <v>0.008926887945180734</v>
+      </c>
+      <c r="T24">
+        <v>0.008206618754110643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.750664</v>
+      </c>
+      <c r="H25">
+        <v>5.501328</v>
+      </c>
+      <c r="I25">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J25">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.190892</v>
+      </c>
+      <c r="N25">
+        <v>0.572676</v>
+      </c>
+      <c r="O25">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P25">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q25">
+        <v>0.525079752288</v>
+      </c>
+      <c r="R25">
+        <v>3.150478513728</v>
+      </c>
+      <c r="S25">
+        <v>0.00264289324746065</v>
+      </c>
+      <c r="T25">
+        <v>0.002429650447380386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.750664</v>
+      </c>
+      <c r="H26">
+        <v>5.501328</v>
+      </c>
+      <c r="I26">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J26">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.8101695</v>
+      </c>
+      <c r="N26">
+        <v>7.620339</v>
+      </c>
+      <c r="O26">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P26">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q26">
+        <v>10.480496077548</v>
+      </c>
+      <c r="R26">
+        <v>41.921984310192</v>
+      </c>
+      <c r="S26">
+        <v>0.05275166713759886</v>
+      </c>
+      <c r="T26">
+        <v>0.03233025316328991</v>
       </c>
     </row>
   </sheetData>
